--- a/analisis berita gimme.xlsx
+++ b/analisis berita gimme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16818E90-1762-40DC-A502-9345CC7AF243}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9373FA-3C7A-45CF-A087-5F2E7E70F0FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9460" windowHeight="5310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$88</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="209">
   <si>
     <t>071e141c216547f83e2b50a63a728163fa9527e337032e9eb84882d6.json</t>
   </si>
@@ -325,15 +325,6 @@
     <t>http://www.usatoday.com/story/money/nation-now/2016/11/08/while-us-talks-election-uk-outraged-over-toblerone-chocolate/93465240/</t>
   </si>
   <si>
-    <t>http://www.telegraph.co.uk/news/2016/11/10/taliban-attack-german-consulate-in-northern-afghan-city-of-mazar/</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/blogs/post-partisan/wp/2016/11/06/comey-to-country-the-jury-will-disregard/?utm_term=.914ce12b2617</t>
-  </si>
-  <si>
-    <t>http://www.bbc.com/news/world-asia-china-37906226</t>
-  </si>
-  <si>
     <t>http://www.express.co.uk/news/world/730940/Donald-Trump-Barack-Obama-White-House-Washington-US-election-2016</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>https://www.dailymail.co.uk/news/article-3916560/Dramatic-footage-shows-rescuers-using-eighty-diggers-save-boy-fell-130ft-deep-picking-cabbages-Chinese-farm.html</t>
   </si>
   <si>
-    <t>zao</t>
-  </si>
-  <si>
     <t>https://www.independent.co.uk/news/world/americas/donald-trump-meets-barack-obama-body-language-president-president-elect-a7412186.html</t>
   </si>
   <si>
@@ -433,9 +421,6 @@
     <t>chinese boy</t>
   </si>
   <si>
-    <t>https://www.dailymail.co.uk/news/article-3922446/Report-shooting-multiple-victims-near-Trump-protest-Seattle-PD.html</t>
-  </si>
-  <si>
     <t>cleansed</t>
   </si>
   <si>
@@ -451,9 +436,6 @@
     <t>https://www.dailymail.co.uk/wires/reuters/article-3910804/Trump-Clinton-focus-crucial-states-campaigns-final-days.html</t>
   </si>
   <si>
-    <t>https://www.standard.co.uk/news/transport/croydon-tram-derailment-people-trapped-after-tram-overturns-in-at-sandilands-a3390796.html</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -650,13 +632,31 @@
   </si>
   <si>
     <t>straight</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bbc.com/news/world-asia-china-37906226 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.telegraph.co.uk/news/2016/11/10/taliban-attack-german-consulate-in-northern-afghan-city-of-mazar/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.washingtonpost.com/blogs/post-partisan/wp/2016/11/06/comey-to-country-the-jury-will-disregard/?utm_term=.914ce12b2617 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailymail.co.uk/news/article-3922446/Report-shooting-multiple-victims-near-Trump-protest-Seattle-PD.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.standard.co.uk/news/transport/croydon-tram-derailment-people-trapped-after-tram-overturns-in-at-sandilands-a3390796.html </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +675,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,10 +720,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,8 +748,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1064,18 +1075,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,10 +1098,10 @@
         <v>87</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>92</v>
@@ -1099,53 +1110,57 @@
         <v>93</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>142</v>
+      <c r="A2" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1157,34 +1172,42 @@
       <c r="D4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>100</v>
+      <c r="A5" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1196,18 +1219,18 @@
         <v>89</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1219,64 +1242,64 @@
         <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1288,13 +1311,13 @@
         <v>89</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L10" t="s">
         <v>89</v>
@@ -1305,21 +1328,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L11" t="s">
         <v>88</v>
@@ -1329,85 +1356,101 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>101</v>
+      <c r="A12" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>102</v>
+      <c r="A13" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1419,41 +1462,41 @@
         <v>89</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1468,38 +1511,38 @@
         <v>98</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
@@ -1511,13 +1554,13 @@
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1528,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>89</v>
@@ -1540,12 +1583,12 @@
         <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -1554,7 +1597,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>98</v>
@@ -1563,12 +1606,12 @@
         <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -1580,62 +1623,64 @@
         <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="A25" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
@@ -1644,27 +1689,27 @@
         <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>89</v>
@@ -1676,12 +1721,12 @@
         <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -1693,18 +1738,18 @@
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -1722,41 +1767,41 @@
         <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>89</v>
@@ -1768,41 +1813,41 @@
         <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>89</v>
@@ -1811,44 +1856,44 @@
         <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>89</v>
@@ -1860,18 +1905,18 @@
         <v>95</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>89</v>
@@ -1883,41 +1928,41 @@
         <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>89</v>
@@ -1929,12 +1974,12 @@
         <v>95</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
@@ -1946,41 +1991,41 @@
         <v>89</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>39</v>
@@ -1992,24 +2037,24 @@
         <v>89</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>89</v>
@@ -2018,38 +2063,38 @@
         <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>42</v>
@@ -2064,15 +2109,15 @@
         <v>98</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
@@ -2081,21 +2126,21 @@
         <v>89</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>44</v>
@@ -2110,61 +2155,61 @@
         <v>98</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>47</v>
@@ -2173,67 +2218,67 @@
         <v>89</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>50</v>
@@ -2245,18 +2290,18 @@
         <v>89</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>51</v>
@@ -2271,15 +2316,15 @@
         <v>98</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
@@ -2294,21 +2339,21 @@
         <v>98</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>89</v>
@@ -2317,130 +2362,130 @@
         <v>98</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>59</v>
@@ -2455,136 +2500,136 @@
         <v>98</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>89</v>
@@ -2593,84 +2638,84 @@
         <v>98</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>69</v>
@@ -2682,18 +2727,18 @@
         <v>89</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>70</v>
@@ -2708,15 +2753,15 @@
         <v>98</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G72" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>71</v>
@@ -2728,70 +2773,70 @@
         <v>89</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>89</v>
@@ -2800,38 +2845,38 @@
         <v>98</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>76</v>
@@ -2840,113 +2885,113 @@
         <v>89</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G81" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>81</v>
@@ -2958,18 +3003,18 @@
         <v>89</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G83" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>82</v>
@@ -2978,67 +3023,67 @@
         <v>89</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G85" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>85</v>
@@ -3050,39 +3095,40 @@
         <v>89</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G88" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G88" xr:uid="{2025C1AB-66F4-4D4C-B141-74492191944B}"/>
   <conditionalFormatting sqref="C1:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
@@ -3093,8 +3139,14 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" xr:uid="{4608A9D6-DC54-4795-8CE1-B627BE25777D}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{2C694362-A47D-4830-BE82-E627D658009A}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{D992EC08-A9C2-4A8A-B415-7CF4D5A15DD8}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{D8574768-986B-4113-8706-8C53AEFB4517}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{FFA3C91A-2702-4D61-ACEB-2B1E44395903}"/>
+    <hyperlink ref="A25" r:id="rId6" xr:uid="{8926DBF1-4BB9-410C-B2A8-B0CA60CFF06A}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{AF1E8843-8899-4E1F-B4FF-8CB95A18297C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>